--- a/NWC_DS.xlsx
+++ b/NWC_DS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D412979C-09F4-4E14-9B88-6534C7046B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733F5DA-04A1-43A5-8972-B9A3E14C7DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30150" yWindow="-120" windowWidth="27570" windowHeight="16440" activeTab="1" xr2:uid="{4F953561-9691-4603-BBFB-87386A6BA44F}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
